--- a/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.86</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,1635 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>10.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>6.86</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.02</v>
       </c>
     </row>
@@ -532,6 +549,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2179,7 +2554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2577,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688707-振华新材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +486,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0.08</v>
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>10.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>6.86</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.02</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -906,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2554,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2952,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
